--- a/cruceDNI.xlsx
+++ b/cruceDNI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moree\Desktop\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEFD178-5798-491E-9C83-916077D1F7A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BF0EB8-AAB8-490B-A7E1-1D7AA8557597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20535" windowHeight="15270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="15720" windowHeight="18360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -75,6 +82,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,10 +106,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -108,58 +134,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{3E63C10F-63A9-4185-8BCB-1A451B4ACCB9}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{087FE0F4-5CB8-4D5B-BA42-2B4406DA0ECA}"/>
     <cellStyle name="Normal 6" xfId="5" xr:uid="{8A90E009-81A3-44B7-93CA-9F43C2BF7D41}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{CE9ABE3F-2AF2-4657-AC89-B77CF019F717}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,120 +482,2176 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>22610095</v>
+      <c r="B2" s="2">
+        <v>34488102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>35610010</v>
+      <c r="B3" s="3">
+        <v>37862621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>22404849</v>
+      <c r="B4" s="3">
+        <v>38469061</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>16978607</v>
+      <c r="B5" s="3">
+        <v>95646284</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>25491439</v>
+      <c r="B6" s="3">
+        <v>42157172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>18617489</v>
+      <c r="B7" s="3">
+        <v>37482233</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>42042590</v>
+      <c r="B8" s="3">
+        <v>36238340</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>6524650</v>
+      <c r="B9" s="3">
+        <v>42675502</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>39812631</v>
+      <c r="B10" s="3">
+        <v>43701737</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>17291420</v>
+      <c r="B11" s="3">
+        <v>27328861</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>24421935</v>
+      <c r="B12" s="3">
+        <v>36351989</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>20233480</v>
+      <c r="B13" s="3">
+        <v>37928061</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>12752593</v>
+      <c r="B14" s="3">
+        <v>41573175</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>41553834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>41067093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>10608089</v>
+        <v>28171284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18393492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>39716226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>36470828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42412057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>40944463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43264164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>24985513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>17666828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>34517865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>37152027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>38239516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>39801518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>39667137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>40581643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>38865473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>41971862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>32896594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>30618753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>35955624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>25969117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>33677335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>41391802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>41764862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>42291073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>31462856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>30648908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>30962037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>22116711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>35567958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>39348684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>41565285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>41670964</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>34138769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>34584036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>28129369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>40062166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>29763545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>19016053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>37904504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>22029964</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>17585905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>30477984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>39831593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>39406741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>41764884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>31776228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>33681553</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>40653849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>41883669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>29705773</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>43015933</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>38239524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>23543898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>40229494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>13925760</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>21561934</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>95509227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>38512161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>42686685</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>43397508</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>21427476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>39150791</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>17338753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>24575750</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>40345316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>39981861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>42428974</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>42309440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>40082725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>20415722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>35951063</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>35499009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>23113634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>41130810</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>18212266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>30478039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>31939500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>18268012</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>35231719</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>95415198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>22174358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>42428402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>38017000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>30192674</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>27235878</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>33782525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>39348731</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>36936218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>13434054</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>26464323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>41670533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>40568982</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>29562329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>16760368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>41128998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>38706082</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>30962539</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>33618623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>43053255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>32869190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>31626897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>43516616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>42428760</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>40895564</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>42230371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>28052529</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>31467642</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <v>35734253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <v>43015688</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <v>34349050</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>40036163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <v>32324906</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <v>38865969</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <v>38706963</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <v>31467528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <v>36936767</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <v>40489860</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <v>25153089</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <v>32485792</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <v>14845965</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <v>14105164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <v>33954547</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <v>13581638</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <v>43088827</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <v>36273207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <v>23615402</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <v>30192290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <v>35346508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <v>37710795</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <v>26464413</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <v>92472201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <v>35112559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <v>31743189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3">
+        <v>22029267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <v>26454224</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4">
+        <v>37113422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5">
+        <v>40015880</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="6">
+        <v>19078737</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="6">
+        <v>14276017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="6">
+        <v>46009189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="6">
+        <v>34531539</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="6">
+        <v>18375257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="6">
+        <v>19009407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5">
+        <v>5401717</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5">
+        <v>17770618</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5">
+        <v>30616479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5">
+        <v>11275992</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5">
+        <v>34137740</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5">
+        <v>24284833</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6">
+        <v>42396853</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="6">
+        <v>30321389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="7">
+        <v>18678855</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5">
+        <v>31494017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5">
+        <v>18629222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5">
+        <v>24056769</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="6">
+        <v>33284127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5">
+        <v>95193648</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5">
+        <v>33155149</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5">
+        <v>25387543</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="6">
+        <v>30455370</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="6">
+        <v>29277390</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="6">
+        <v>37041294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5">
+        <v>16506111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5">
+        <v>28197192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5">
+        <v>23847422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5">
+        <v>37788394</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="6">
+        <v>23846513</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5">
+        <v>34259937</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="6">
+        <v>35321875</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="6">
+        <v>37840210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="6">
+        <v>40381649</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="6">
+        <v>34259983</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5">
+        <v>32994558</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5">
+        <v>18903210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5">
+        <v>11798017</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5">
+        <v>40570997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5">
+        <v>25617649</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5">
+        <v>25945518</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5">
+        <v>28316369</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5">
+        <v>22628534</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5">
+        <v>35997259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5">
+        <v>41560820</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5">
+        <v>29669857</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5">
+        <v>23169297</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5">
+        <v>23169125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5">
+        <v>17435061</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5">
+        <v>42942948</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5">
+        <v>30466405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5">
+        <v>6252312</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5">
+        <v>36162044</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5">
+        <v>42942971</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5">
+        <v>38229695</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5">
+        <v>31983553</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5">
+        <v>34279840</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5">
+        <v>39608717</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5">
+        <v>20312981</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5">
+        <v>20736526</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5">
+        <v>42680529</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5">
+        <v>6678318</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3">
+        <v>39113346</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3">
+        <v>23220046</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3">
+        <v>17541396</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3">
+        <v>47068400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="3">
+        <v>14216659</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3">
+        <v>33421710</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3">
+        <v>33738857</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3">
+        <v>43725588</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3">
+        <v>94653540</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3">
+        <v>35000378</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="3">
+        <v>38790164</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3">
+        <v>27326045</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="3">
+        <v>41684638</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3">
+        <v>38079631</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3">
+        <v>35343835</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3">
+        <v>31065158</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3">
+        <v>40423661</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="3">
+        <v>22082349</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="3">
+        <v>34174379</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="3">
+        <v>22113856</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="3">
+        <v>41647857</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="3">
+        <v>43003733</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="3">
+        <v>94211369</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="3">
+        <v>37367858</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="3">
+        <v>40018014</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="3">
+        <v>40126091</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="3">
+        <v>94666698</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="3">
+        <v>22479878</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="3">
+        <v>35802220</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="3">
+        <v>37276027</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="3">
+        <v>32663354</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="3">
+        <v>36874215</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="3">
+        <v>42834301</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="3">
+        <v>38356817</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="3">
+        <v>13358208</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="3">
+        <v>23528227</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="3">
+        <v>36937276</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="3">
+        <v>30326266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="3">
+        <v>33373918</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="3">
+        <v>27359885</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3">
+        <v>41684623</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3">
+        <v>94903408</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="3">
+        <v>32424030</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="3">
+        <v>94457799</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3">
+        <v>11999399</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="3">
+        <v>45303593</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="3">
+        <v>94246348</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="3">
+        <v>36154285</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="3">
+        <v>14133109</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="3">
+        <v>22825223</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="3">
+        <v>42661684</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="3">
+        <v>42828950</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="3">
+        <v>37323169</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="3">
+        <v>41327918</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="3">
+        <v>16754917</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="3">
+        <v>40017998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="3">
+        <v>29379350</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="3">
+        <v>94194147</v>
       </c>
     </row>
   </sheetData>
